--- a/biology/Médecine/Rameau_méningé_des_nerfs_spinaux/Rameau_méningé_des_nerfs_spinaux.xlsx
+++ b/biology/Médecine/Rameau_méningé_des_nerfs_spinaux/Rameau_méningé_des_nerfs_spinaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rameau_m%C3%A9ning%C3%A9_des_nerfs_spinaux</t>
+          <t>Rameau_méningé_des_nerfs_spinaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Les rameaux méningés des nerfs spinaux (ou nerfs sinu-vertébraux ou nerfs récurrents de Luschka ou nerfs méningés récurrents) sont de petits nerfs qui naissent des nerfs spinaux entre l'origine des rameaux communicants gris et blanc et la division du nerf spinal en branches antérieure et postérieure.
